--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3538934.277881029</v>
+        <v>3635604.254365403</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>142.6621898072149</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>136.3841204101435</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.0992346450739</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>34.02048567924334</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>396.1618938450834</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>244.4268842305179</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>155.886038567534</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>217.5699682789832</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>41.86825775617202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>120.4120358099645</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>120.7567263487572</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292596</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1466,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
         <v>18.81721868247745</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>8.56193669984307</v>
+        <v>21.88129253963044</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
         <v>18.81721868247745</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>120.1732544673561</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>61.4426839403927</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>75.58960588766205</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>115.3033543291144</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>94.56373074953527</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>126.0694959538574</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>83.87580314198345</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.50487961458232</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>189.5635893911118</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>160.0509524740926</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>113.8080497012953</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>119.7538174046242</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>42.95803372911147</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>163.9704293468966</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>24.32202182135247</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>29.57958932363277</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881757</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589007</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247736</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097067</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>97.97724076774138</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983805</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004726</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>53.45227442954955</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3799,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>45.2808584968836</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>199.5487542181039</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>74.7576914549245</v>
       </c>
       <c r="D46" t="n">
-        <v>126.3628107360976</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1643278732605</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>525.2409238118514</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>198.0462038478543</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2164.575198516432</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2164.575198516432</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2164.575198516432</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>222.942782082032</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.018810322078</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="C5" t="n">
-        <v>1704.018810322078</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.753111715327</v>
+        <v>1515.576789967118</v>
       </c>
       <c r="E5" t="n">
-        <v>1345.753111715327</v>
+        <v>1129.788537368874</v>
       </c>
       <c r="F5" t="n">
-        <v>934.7672069257198</v>
+        <v>718.8026325792664</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>300.8388244774533</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.6186503862</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.6186503862</v>
+        <v>1873.842488573869</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4756,19 +4758,19 @@
         <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.5492509541</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406938</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.680433881714</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.680433881714</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.680433881714</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.680433881714</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2105.214675620634</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>175.5713008203286</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>576.7355737986852</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>576.7355737986852</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>576.7355737986852</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>576.7355737986852</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>576.7355737986852</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.7460229006679</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,10 +5026,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L11" t="n">
-        <v>1650.184003770974</v>
+        <v>1682.725100522033</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.715908442899</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>2730.494725501681</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3610.459375831136</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4323.814463278081</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,10 +5074,10 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
         <v>487.9678785494859</v>
@@ -5118,19 +5120,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>972.7495048756253</v>
+        <v>676.4156786811474</v>
       </c>
       <c r="C13" t="n">
-        <v>803.8133219477185</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="D13" t="n">
-        <v>653.6966825353827</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5200,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.513008862232</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V13" t="n">
-        <v>1611.828520656345</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W13" t="n">
-        <v>1603.180099747412</v>
+        <v>1078.856722654917</v>
       </c>
       <c r="X13" t="n">
-        <v>1375.190548849395</v>
+        <v>1078.856722654917</v>
       </c>
       <c r="Y13" t="n">
-        <v>1154.397969705865</v>
+        <v>858.0641435113871</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366028</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2215.249704195857</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N14" t="n">
-        <v>2762.028521254639</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5309,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5355,13 +5357,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>460.4910241367934</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C16" t="n">
-        <v>460.4910241367934</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D16" t="n">
-        <v>339.1038984121913</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
         <v>339.1038984121913</v>
@@ -5437,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1894.280148993195</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1672.513533562721</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1383.410666688365</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1383.410666688365</v>
       </c>
       <c r="W16" t="n">
-        <v>909.2731541783409</v>
+        <v>1383.410666688365</v>
       </c>
       <c r="X16" t="n">
-        <v>681.2836032803235</v>
+        <v>1155.421115790348</v>
       </c>
       <c r="Y16" t="n">
-        <v>460.4910241367934</v>
+        <v>1155.421115790348</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2536.15366264131</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N17" t="n">
-        <v>3082.932479700092</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O17" t="n">
-        <v>3585.904950579429</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5589,16 +5591,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>390.3640755286979</v>
+        <v>3625.521578262737</v>
       </c>
       <c r="C19" t="n">
-        <v>390.3640755286979</v>
+        <v>3625.521578262737</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>3475.404938850401</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>3475.404938850401</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>3328.514991352491</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>4466.454649746775</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>4177.351782872418</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>3922.667294666531</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783409</v>
+        <v>3922.667294666531</v>
       </c>
       <c r="X19" t="n">
-        <v>792.8051195024677</v>
+        <v>3922.667294666531</v>
       </c>
       <c r="Y19" t="n">
-        <v>572.0125403589376</v>
+        <v>3701.874715523001</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5734,19 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839441</v>
@@ -5753,19 +5755,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2368.748013620957</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107236</v>
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
@@ -5832,10 +5834,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5862,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>825.859557377715</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="C22" t="n">
-        <v>656.9233744498081</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D22" t="n">
-        <v>506.8067350374723</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E22" t="n">
-        <v>506.8067350374723</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
         <v>339.1038984121913</v>
@@ -5932,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431758</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U22" t="n">
-        <v>1355.643526557401</v>
+        <v>1669.138661982505</v>
       </c>
       <c r="V22" t="n">
-        <v>1355.643526557401</v>
+        <v>1414.454173776618</v>
       </c>
       <c r="W22" t="n">
-        <v>1228.300601351485</v>
+        <v>1414.454173776618</v>
       </c>
       <c r="X22" t="n">
-        <v>1228.300601351485</v>
+        <v>1186.4646228786</v>
       </c>
       <c r="Y22" t="n">
-        <v>1007.508022207955</v>
+        <v>965.6720437350702</v>
       </c>
     </row>
     <row r="23">
@@ -5981,10 +5983,10 @@
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5996,28 +5998,28 @@
         <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2593.249184644075</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N23" t="n">
-        <v>3573.001456870722</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>485.9938459101016</v>
+        <v>3333.647790285308</v>
       </c>
       <c r="C25" t="n">
-        <v>485.9938459101016</v>
+        <v>3164.711607357401</v>
       </c>
       <c r="D25" t="n">
-        <v>485.9938459101016</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="E25" t="n">
-        <v>485.9938459101016</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>4693.328688942969</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>4501.642804769795</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>4279.876189339321</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>3990.773322464965</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>3736.088834259078</v>
       </c>
       <c r="W25" t="n">
-        <v>909.2731541783409</v>
+        <v>3736.088834259078</v>
       </c>
       <c r="X25" t="n">
-        <v>681.2836032803235</v>
+        <v>3736.088834259078</v>
       </c>
       <c r="Y25" t="n">
-        <v>667.6423107403414</v>
+        <v>3515.296255115548</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2649.23046036182</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3888.072124968687</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6336,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3384.235206686047</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="C28" t="n">
-        <v>3215.29902375814</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D28" t="n">
-        <v>3065.182384345804</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E28" t="n">
-        <v>2917.269290763411</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F28" t="n">
-        <v>2917.269290763411</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G28" t="n">
-        <v>2917.269290763411</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763411</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004074</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>4274.7687655736</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U28" t="n">
-        <v>4083.290392451265</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V28" t="n">
-        <v>4083.290392451265</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="W28" t="n">
-        <v>3793.873222414304</v>
+        <v>1355.329223394797</v>
       </c>
       <c r="X28" t="n">
-        <v>3565.883671516287</v>
+        <v>1127.33967249678</v>
       </c>
       <c r="Y28" t="n">
-        <v>3565.883671516287</v>
+        <v>965.6720437350702</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6451,16 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6470,22 +6472,22 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6546,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,16 +6560,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3445.378724331787</v>
+        <v>1094.736102883971</v>
       </c>
       <c r="C31" t="n">
-        <v>3276.44254140388</v>
+        <v>925.7999199560641</v>
       </c>
       <c r="D31" t="n">
-        <v>3276.44254140388</v>
+        <v>775.6832805437283</v>
       </c>
       <c r="E31" t="n">
-        <v>3161.484915442976</v>
+        <v>627.7701869613352</v>
       </c>
       <c r="F31" t="n">
-        <v>3014.594967945065</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>3014.594967945065</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945065</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U31" t="n">
-        <v>4399.118398302891</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V31" t="n">
-        <v>4144.433910097005</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W31" t="n">
-        <v>3855.016740060044</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="X31" t="n">
-        <v>3627.027189162027</v>
+        <v>1094.736102883971</v>
       </c>
       <c r="Y31" t="n">
-        <v>3627.027189162027</v>
+        <v>1094.736102883971</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6679,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6701,25 +6703,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.844055175504</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N32" t="n">
-        <v>3027.596327402151</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.722831322499</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6731,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6810,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3671.170023911572</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C34" t="n">
-        <v>3502.233840983665</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D34" t="n">
-        <v>3352.11720157133</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E34" t="n">
-        <v>3204.204107988936</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>3204.204107988936</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.05172241972</v>
+        <v>1700.886312552235</v>
       </c>
       <c r="T34" t="n">
-        <v>4556.285106989246</v>
+        <v>1479.119697121761</v>
       </c>
       <c r="U34" t="n">
-        <v>4556.285106989246</v>
+        <v>1190.016830247405</v>
       </c>
       <c r="V34" t="n">
-        <v>4301.600618783359</v>
+        <v>935.3323420415179</v>
       </c>
       <c r="W34" t="n">
-        <v>4301.600618783359</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="X34" t="n">
-        <v>4073.611067885342</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y34" t="n">
-        <v>3852.818488741812</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L35" t="n">
         <v>1390.197710791128</v>
       </c>
       <c r="M35" t="n">
-        <v>2368.748013620957</v>
+        <v>1923.729615463052</v>
       </c>
       <c r="N35" t="n">
-        <v>2915.526830679739</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906983</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353929</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390117</v>
@@ -7020,7 +7022,7 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7047,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3260.889811913099</v>
+        <v>3455.615195807513</v>
       </c>
       <c r="C37" t="n">
-        <v>3091.953628985193</v>
+        <v>3455.615195807513</v>
       </c>
       <c r="D37" t="n">
-        <v>2941.836989572857</v>
+        <v>3455.615195807513</v>
       </c>
       <c r="E37" t="n">
-        <v>2941.836989572857</v>
+        <v>3307.70210222512</v>
       </c>
       <c r="F37" t="n">
-        <v>2941.836989572857</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.26929076341</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.26929076341</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.26929076341</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210346</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159222</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207267</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913132</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833545</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267204</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177247</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004073</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="T37" t="n">
-        <v>4496.535381004073</v>
+        <v>4466.454649746775</v>
       </c>
       <c r="U37" t="n">
-        <v>4207.432514129717</v>
+        <v>4177.351782872418</v>
       </c>
       <c r="V37" t="n">
-        <v>3952.74802592383</v>
+        <v>4147.473409818243</v>
       </c>
       <c r="W37" t="n">
-        <v>3663.330855886869</v>
+        <v>3858.056239781283</v>
       </c>
       <c r="X37" t="n">
-        <v>3663.330855886869</v>
+        <v>3858.056239781283</v>
       </c>
       <c r="Y37" t="n">
-        <v>3442.538276743339</v>
+        <v>3637.263660637753</v>
       </c>
     </row>
     <row r="38">
@@ -7160,61 +7162,61 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074202</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427202</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M38" t="n">
-        <v>2016.310259422546</v>
+        <v>2593.249184644072</v>
       </c>
       <c r="N38" t="n">
-        <v>2996.062531649192</v>
+        <v>3573.001456870719</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.722831322498</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679676</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188664</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
         <v>2760.816196754298</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089898</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390088</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193563</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320221</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008793</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>681.2836032803235</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C40" t="n">
-        <v>512.3474203524166</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D40" t="n">
-        <v>362.2307809400809</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E40" t="n">
-        <v>362.2307809400809</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839438</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839438</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442067</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927031</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518531</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862233</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1812.520812468749</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1812.520812468749</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1812.520812468749</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1812.520812468749</v>
       </c>
       <c r="W40" t="n">
-        <v>909.2731541783409</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="X40" t="n">
-        <v>681.2836032803235</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y40" t="n">
-        <v>681.2836032803235</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7390,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7406,49 +7408,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>321.2053114736835</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>975.9286436089831</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1840.447459262338</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420603</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7485,37 +7487,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>558.0669121539789</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C43" t="n">
-        <v>558.0669121539789</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D43" t="n">
-        <v>558.0669121539789</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1538185715858</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7591,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1910.605225198761</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1688.838609768287</v>
       </c>
       <c r="U43" t="n">
-        <v>1443.181995231653</v>
+        <v>1399.73574289393</v>
       </c>
       <c r="V43" t="n">
-        <v>1188.497507025766</v>
+        <v>1145.051254688043</v>
       </c>
       <c r="W43" t="n">
-        <v>1188.497507025766</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="X43" t="n">
-        <v>960.5079561277488</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="Y43" t="n">
-        <v>739.7153769842187</v>
+        <v>855.6340846510827</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1482.778354750622</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2274.668463554305</v>
       </c>
       <c r="N44" t="n">
-        <v>3008.107474639232</v>
+        <v>3254.420735780952</v>
       </c>
       <c r="O44" t="n">
-        <v>3692.333950986037</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320232</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7780,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>613.6330486738366</v>
+        <v>171.0738540998333</v>
       </c>
       <c r="C46" t="n">
-        <v>613.6330486738366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7831,25 +7833,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T46" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U46" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1131.039769608815</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W46" t="n">
-        <v>841.6225995718539</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X46" t="n">
-        <v>613.6330486738366</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y46" t="n">
-        <v>613.6330486738366</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>295.4822118493993</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.70159106555778</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,16 +8938,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>283.315602768551</v>
       </c>
       <c r="O14" t="n">
-        <v>285.0508825989992</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,22 +9172,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>345.3140082169177</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>282.7041781993159</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,22 +9403,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>283.315602768549</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>258.6211785616931</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9653,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9875,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>315.1679217109311</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>189.7998007892645</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10118,16 +10120,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>317.5146261106146</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,16 +10363,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>272.8828616575871</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>226.7688596193101</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,19 +10594,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>411.030428089901</v>
       </c>
       <c r="O35" t="n">
-        <v>130.0020851999063</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,28 +10825,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>258.6211785616885</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>304.7351805999682</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>37.13651117804412</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>189.7998007892635</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11078,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,13 +11305,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>260.9678829613724</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>183.0848540075436</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,19 +23469,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>277.961061636748</v>
+        <v>264.6417057969605</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>28.44221855085625</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>128.3263413910492</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>104.2423742942753</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>110.4063010599228</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>191.6481074560776</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>160.4535023827336</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.056349528063876</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>205.0797737375125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>96.6482488145011</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>58.53370087800221</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32.62591294527387</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>25.66723061830702</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>123.0677745299168</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>25.79859598454533</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.7037864376757</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>222.5580540001952</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>47.44380725518987</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>136.3167509018923</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>144.4881668345583</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>86.66308398750897</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370334</v>
       </c>
       <c r="D46" t="n">
-        <v>22.25266228211477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>676011.6424309341</v>
+        <v>676011.6424309342</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676011.642430934</v>
+        <v>676011.6424309341</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676011.6424309341</v>
+        <v>676011.642430934</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676011.642430934</v>
+        <v>676011.6424309341</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676011.642430934</v>
+        <v>676011.6424309341</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676011.6424309341</v>
+        <v>676011.642430934</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676011.642430934</v>
+        <v>676011.6424309341</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>676011.6424309341</v>
+        <v>676011.642430934</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244621</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244623</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
         <v>734601.3057409192</v>
@@ -26326,34 +26328,34 @@
         <v>734601.3057409192</v>
       </c>
       <c r="G2" t="n">
+        <v>734601.3057409195</v>
+      </c>
+      <c r="H2" t="n">
+        <v>734601.305740919</v>
+      </c>
+      <c r="I2" t="n">
         <v>734601.3057409192</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>734601.3057409193</v>
+      </c>
+      <c r="K2" t="n">
         <v>734601.3057409191</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>734601.3057409192</v>
+      </c>
+      <c r="M2" t="n">
+        <v>734601.3057409195</v>
+      </c>
+      <c r="N2" t="n">
         <v>734601.3057409193</v>
       </c>
-      <c r="J2" t="n">
-        <v>734601.3057409192</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>734601.3057409191</v>
+      </c>
+      <c r="P2" t="n">
         <v>734601.305740919</v>
-      </c>
-      <c r="L2" t="n">
-        <v>734601.3057409191</v>
-      </c>
-      <c r="M2" t="n">
-        <v>734601.3057409191</v>
-      </c>
-      <c r="N2" t="n">
-        <v>734601.3057409191</v>
-      </c>
-      <c r="O2" t="n">
-        <v>734601.3057409193</v>
-      </c>
-      <c r="P2" t="n">
-        <v>734601.3057409191</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7.847961569495964e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26424,13 +26426,13 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="G4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
@@ -26439,25 +26441,25 @@
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="K4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709186</v>
-      </c>
       <c r="M4" t="n">
-        <v>21619.60799709192</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709191</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709184</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26488,28 +26490,28 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105569.9165459212</v>
+        <v>-105569.9165459217</v>
       </c>
       <c r="C6" t="n">
+        <v>484397.962668623</v>
+      </c>
+      <c r="D6" t="n">
         <v>484397.9626686232</v>
       </c>
-      <c r="D6" t="n">
-        <v>484397.9626686234</v>
-      </c>
       <c r="E6" t="n">
-        <v>-110779.234503293</v>
+        <v>-110779.2345032929</v>
       </c>
       <c r="F6" t="n">
         <v>616598.1794901137</v>
       </c>
       <c r="G6" t="n">
+        <v>616598.1794901141</v>
+      </c>
+      <c r="H6" t="n">
+        <v>616598.1794901135</v>
+      </c>
+      <c r="I6" t="n">
         <v>616598.1794901137</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>440174.9602975208</v>
+      </c>
+      <c r="K6" t="n">
         <v>616598.1794901136</v>
       </c>
-      <c r="I6" t="n">
-        <v>616598.1794901139</v>
-      </c>
-      <c r="J6" t="n">
-        <v>440174.9602975209</v>
-      </c>
-      <c r="K6" t="n">
-        <v>616598.1794901135</v>
-      </c>
       <c r="L6" t="n">
-        <v>616598.1794901136</v>
+        <v>616598.1794901137</v>
       </c>
       <c r="M6" t="n">
-        <v>486955.8646511688</v>
+        <v>486955.8646511693</v>
       </c>
       <c r="N6" t="n">
-        <v>616598.1794901135</v>
+        <v>616598.1794901129</v>
       </c>
       <c r="O6" t="n">
-        <v>616598.1794901139</v>
+        <v>616598.1794901142</v>
       </c>
       <c r="P6" t="n">
-        <v>616598.1794901136</v>
+        <v>616598.1794901132</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26771,13 +26773,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>9.269126437646349</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>114.8400470981458</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>11.18263959690387</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>252.5025126573477</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>17.62227617571159</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>79.49588853383923</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>23.70481751979003</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>96.25160475629397</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>164.3604017932786</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>174.5800626014858</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>26.02192683660465</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>91.38881260126168</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -33041,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681602</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844671</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003815</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.35652936232</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490575</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009503</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099066</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746419</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781694</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806959</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345281</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752264</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026408</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.95656191388</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.928301823348</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837929</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002931</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.5396634623832</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898506</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462217</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311881</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742024</v>
       </c>
       <c r="J40" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316435</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712223</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553039</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112303</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138783</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P45" t="n">
         <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>751.0723262417313</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>333.4958958692773</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>835.6174381814623</v>
       </c>
       <c r="O14" t="n">
-        <v>793.1038834872184</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>884.2351240471443</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>681.4661644186878</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,22 +36123,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>835.6174381814604</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>600.7283960894835</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36364,7 +36366,7 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>797.5422943919199</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
@@ -36373,7 +36375,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>657.383164781064</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36595,13 +36597,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>854.0890375411578</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,7 +36612,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>588.5617870086363</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36689,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36838,16 +36840,16 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>856.4357419408414</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37081,16 +37083,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>780.9358625458062</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>625.530845838682</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>963.3322635028122</v>
       </c>
       <c r="O35" t="n">
-        <v>638.0550860881254</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265657</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427832</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>797.5422943919158</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248963</v>
       </c>
       <c r="O38" t="n">
-        <v>812.7881814881873</v>
+        <v>508.0530008882198</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193723</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222501</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597412</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340058</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013296</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004597</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.112403452581</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859628</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306634</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443198</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934841</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.35313022264</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.3942385378938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>227.9235121467567</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>742.101636202175</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
@@ -37798,10 +37800,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>799.8889987915994</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O44" t="n">
-        <v>691.1378548957628</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340041</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
